--- a/ai-doctor/data/data_sources/org_data/abbr_mapping.xlsx
+++ b/ai-doctor/data/data_sources/org_data/abbr_mapping.xlsx
@@ -161,25 +161,25 @@
     <t>C.Vol D 3mm:</t>
   </si>
   <si>
-    <t>Corneal volume in a 3mm diameter zone around the corneal apex</t>
+    <t>Corneal volume in a 3mm diameter zone around the corneal apex</t>
   </si>
   <si>
     <t>C.Vol D 5mm:</t>
   </si>
   <si>
-    <t>Corneal volume in a 5mm diameter zone around the corneal apex</t>
+    <t>Corneal volume in a 5mm diameter zone around the corneal apex</t>
   </si>
   <si>
     <t>C.Vol D 7mm:</t>
   </si>
   <si>
-    <t>Corneal volume in a 7mm diameter zone around the corneal apex</t>
+    <t>Corneal volume in a 7mm diameter zone around the corneal apex</t>
   </si>
   <si>
     <t>C.Vol D 10mm:</t>
   </si>
   <si>
-    <t>Corneal volume in a 10mm diameter zone around the corneal apex</t>
+    <t>Corneal volume in a 10mm diameter zone around the corneal apex</t>
   </si>
   <si>
     <t>BAD Df:</t>
@@ -356,7 +356,7 @@
     <t>I-S Value</t>
   </si>
   <si>
-    <t>Difference between average inferior and superior corneal powers 3 mm from the center of the cornea</t>
+    <t>Difference between average inferior and superior corneal powers 3 mm from the center of the cornea</t>
   </si>
   <si>
     <t>CCT</t>
@@ -374,7 +374,7 @@
     <t>Dist C-T</t>
   </si>
   <si>
-    <t>Distance from center to the thinnest point</t>
+    <t>Distance from center to the thinnest point</t>
   </si>
   <si>
     <t>PachyMinY</t>
@@ -1971,8 +1971,8 @@
   <sheetPr/>
   <dimension ref="A1:B164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
